--- a/Project Outputs for CAN_SNIFFER/BOM/Bill of Materials-BOM.xlsx
+++ b/Project Outputs for CAN_SNIFFER/BOM/Bill of Materials-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\altium workspace\UAVCAN-Sniffer-STM-Programmer\Project Outputs for CAN_SNIFFER\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{622D5CFD-4465-49A1-B8EE-E6189E5D5CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24CE4D68-7851-4F20-AC8B-15161EC3417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{FBB9B1DC-1740-477A-B92F-B9677B71458B}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{4A52BB3A-BB9F-4DC9-8657-43BE7A2148EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-BOM" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4B335F-1735-466A-880D-987E93C4681A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE492DF-47CA-4CC4-9183-6B7CD190ACAC}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
